--- a/reports/_MAXICAN CONTAINER LINE PTE LTD_ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_5_.xlsx
+++ b/reports/_MAXICAN CONTAINER LINE PTE LTD_ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_5_.xlsx
@@ -4410,7 +4410,7 @@
       </c>
       <c r="N36" s="0" t="inlineStr">
         <is>
-          <t>SWEEP</t>
+          <t>CLEANED</t>
         </is>
       </c>
       <c r="O36" s="0" t="inlineStr">
@@ -4419,7 +4419,7 @@
         </is>
       </c>
       <c r="P36" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q36" s="0" t="n">
         <v>1</v>
@@ -4628,10 +4628,10 @@
         <v>2</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>19</v>
